--- a/AMASS3.0/dictionary_for_wards.xlsx
+++ b/AMASS3.0/dictionary_for_wards.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chalida\Desktop\AMASS3.0-Lite-main\AMASS3.0-Lite-main\AMASS3.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ONGWORK\GitHub\AMASS3.0-Lite\AMASS3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A215B8C8-7DAF-472C-B3DD-2C65648BCC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -39,9 +38,6 @@
     <t>Explanations</t>
   </si>
   <si>
-    <t>Ward name used in your microbiology_data</t>
-  </si>
-  <si>
     <t>ward_001</t>
   </si>
   <si>
@@ -498,9 +494,6 @@
     <t>Variable names used in AMASS</t>
   </si>
   <si>
-    <t>Variable names used in your microbiology data file</t>
-  </si>
-  <si>
     <t>Explanations - Variable names used in AMASS</t>
   </si>
   <si>
@@ -673,12 +666,18 @@
   </si>
   <si>
     <t>ward_hosp</t>
+  </si>
+  <si>
+    <t>Variable names used in your data files</t>
+  </si>
+  <si>
+    <t>Ward name used in your data files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1168,27 +1167,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="250" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="105.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="6" t="s">
@@ -1198,24 +1199,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="15"/>
@@ -1223,12 +1224,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="15"/>
@@ -1236,18 +1237,18 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>3</v>
+        <v>214</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>1</v>
@@ -1256,9 +1257,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="19"/>
@@ -1266,12 +1267,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="19"/>
@@ -1279,12 +1280,12 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="19"/>
@@ -1292,12 +1293,12 @@
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="19"/>
@@ -1305,12 +1306,12 @@
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="19"/>
@@ -1318,12 +1319,12 @@
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="19"/>
@@ -1331,12 +1332,12 @@
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="19"/>
@@ -1344,12 +1345,12 @@
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="19"/>
@@ -1357,12 +1358,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="19"/>
@@ -1370,12 +1371,12 @@
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="19"/>
@@ -1383,12 +1384,12 @@
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="19"/>
@@ -1396,12 +1397,12 @@
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="19"/>
@@ -1409,12 +1410,12 @@
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="19"/>
@@ -1422,12 +1423,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="19"/>
@@ -1435,12 +1436,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="19"/>
@@ -1448,12 +1449,12 @@
         <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="19"/>
@@ -1461,12 +1462,12 @@
         <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="19"/>
@@ -1474,12 +1475,12 @@
         <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="19"/>
@@ -1487,12 +1488,12 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="19"/>
@@ -1500,12 +1501,12 @@
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="19"/>
@@ -1513,12 +1514,12 @@
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="19"/>
@@ -1526,12 +1527,12 @@
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="19"/>
@@ -1539,12 +1540,12 @@
         <v>0</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="19"/>
@@ -1552,12 +1553,12 @@
         <v>0</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="19"/>
@@ -1565,12 +1566,12 @@
         <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="19"/>
@@ -1578,12 +1579,12 @@
         <v>0</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="19"/>
@@ -1591,12 +1592,12 @@
         <v>0</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="19"/>
@@ -1604,12 +1605,12 @@
         <v>0</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="19"/>
@@ -1617,12 +1618,12 @@
         <v>0</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="19"/>
@@ -1630,12 +1631,12 @@
         <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="19"/>
@@ -1643,12 +1644,12 @@
         <v>0</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="19"/>
@@ -1656,12 +1657,12 @@
         <v>0</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="19"/>
@@ -1669,12 +1670,12 @@
         <v>0</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="19"/>
@@ -1682,12 +1683,12 @@
         <v>0</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="19"/>
@@ -1695,12 +1696,12 @@
         <v>0</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="19"/>
@@ -1708,12 +1709,12 @@
         <v>0</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="19"/>
@@ -1721,12 +1722,12 @@
         <v>0</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="19"/>
@@ -1734,12 +1735,12 @@
         <v>0</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="19"/>
@@ -1747,12 +1748,12 @@
         <v>0</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="19"/>
@@ -1760,12 +1761,12 @@
         <v>0</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="19"/>
@@ -1773,12 +1774,12 @@
         <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="19"/>
@@ -1786,12 +1787,12 @@
         <v>0</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="19"/>
@@ -1799,12 +1800,12 @@
         <v>0</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="19"/>
@@ -1812,12 +1813,12 @@
         <v>0</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="19"/>
@@ -1825,12 +1826,12 @@
         <v>0</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="19"/>
@@ -1838,12 +1839,12 @@
         <v>0</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="19"/>
@@ -1851,12 +1852,12 @@
         <v>0</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="19"/>
@@ -1864,12 +1865,12 @@
         <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="19"/>
@@ -1877,12 +1878,12 @@
         <v>0</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="19"/>
@@ -1890,12 +1891,12 @@
         <v>0</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="19"/>
@@ -1903,12 +1904,12 @@
         <v>0</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="19"/>
@@ -1916,12 +1917,12 @@
         <v>0</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="19"/>
@@ -1929,12 +1930,12 @@
         <v>0</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="19"/>
@@ -1942,12 +1943,12 @@
         <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="19"/>
@@ -1955,12 +1956,12 @@
         <v>0</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="19"/>
@@ -1968,12 +1969,12 @@
         <v>0</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="19"/>
@@ -1981,12 +1982,12 @@
         <v>0</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="19"/>
@@ -1994,12 +1995,12 @@
         <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="19"/>
@@ -2007,12 +2008,12 @@
         <v>0</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="19"/>
@@ -2020,12 +2021,12 @@
         <v>0</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="19"/>
@@ -2033,12 +2034,12 @@
         <v>0</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="19"/>
@@ -2046,12 +2047,12 @@
         <v>0</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="19"/>
@@ -2059,12 +2060,12 @@
         <v>0</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="19"/>
@@ -2072,12 +2073,12 @@
         <v>0</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="19"/>
@@ -2085,12 +2086,12 @@
         <v>0</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="19"/>
@@ -2098,12 +2099,12 @@
         <v>0</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="19"/>
@@ -2111,12 +2112,12 @@
         <v>0</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="19"/>
@@ -2124,12 +2125,12 @@
         <v>0</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="19"/>
@@ -2137,12 +2138,12 @@
         <v>0</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="19"/>
@@ -2150,12 +2151,12 @@
         <v>0</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="19"/>
@@ -2163,12 +2164,12 @@
         <v>0</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="19"/>
@@ -2176,12 +2177,12 @@
         <v>0</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="19"/>
@@ -2189,12 +2190,12 @@
         <v>0</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="19"/>
@@ -2202,12 +2203,12 @@
         <v>0</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="19"/>
@@ -2215,12 +2216,12 @@
         <v>0</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="19"/>
@@ -2228,12 +2229,12 @@
         <v>0</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="19"/>
@@ -2241,12 +2242,12 @@
         <v>0</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="19"/>
@@ -2254,12 +2255,12 @@
         <v>0</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="19"/>
@@ -2267,12 +2268,12 @@
         <v>0</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="19"/>
@@ -2280,12 +2281,12 @@
         <v>0</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="19"/>
@@ -2293,12 +2294,12 @@
         <v>0</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="19"/>
@@ -2306,12 +2307,12 @@
         <v>0</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="19"/>
@@ -2319,12 +2320,12 @@
         <v>0</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="19"/>
@@ -2332,12 +2333,12 @@
         <v>0</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="19"/>
@@ -2345,12 +2346,12 @@
         <v>0</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="19"/>
@@ -2358,12 +2359,12 @@
         <v>0</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="19"/>
@@ -2371,12 +2372,12 @@
         <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="19"/>
@@ -2384,12 +2385,12 @@
         <v>0</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="19"/>
@@ -2397,12 +2398,12 @@
         <v>0</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="19"/>
@@ -2410,12 +2411,12 @@
         <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="19"/>
@@ -2423,12 +2424,12 @@
         <v>0</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="19"/>
@@ -2436,12 +2437,12 @@
         <v>0</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="19"/>
@@ -2449,12 +2450,12 @@
         <v>0</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="19"/>
@@ -2462,12 +2463,12 @@
         <v>0</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="19"/>
@@ -2475,12 +2476,12 @@
         <v>0</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="19"/>
@@ -2488,12 +2489,12 @@
         <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="19"/>
@@ -2501,12 +2502,12 @@
         <v>0</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="19"/>
@@ -2514,12 +2515,12 @@
         <v>0</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="19"/>
@@ -2527,12 +2528,12 @@
         <v>0</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="19"/>
@@ -2540,12 +2541,12 @@
         <v>0</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="19"/>
@@ -2553,12 +2554,12 @@
         <v>0</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="19"/>
@@ -2566,12 +2567,12 @@
         <v>0</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="19"/>
@@ -2579,12 +2580,12 @@
         <v>0</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="19"/>
@@ -2592,12 +2593,12 @@
         <v>0</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="19"/>
@@ -2605,12 +2606,12 @@
         <v>0</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="19"/>
@@ -2618,12 +2619,12 @@
         <v>0</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="19"/>
@@ -2631,12 +2632,12 @@
         <v>0</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="19"/>
@@ -2644,12 +2645,12 @@
         <v>0</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="19"/>
@@ -2657,12 +2658,12 @@
         <v>0</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="19"/>
@@ -2670,12 +2671,12 @@
         <v>0</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="19"/>
@@ -2683,12 +2684,12 @@
         <v>0</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="19"/>
@@ -2696,12 +2697,12 @@
         <v>0</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="19"/>
@@ -2709,12 +2710,12 @@
         <v>0</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="19"/>
@@ -2722,12 +2723,12 @@
         <v>0</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="19"/>
@@ -2735,12 +2736,12 @@
         <v>0</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="19"/>
@@ -2748,12 +2749,12 @@
         <v>0</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="19"/>
@@ -2761,12 +2762,12 @@
         <v>0</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="19"/>
@@ -2774,12 +2775,12 @@
         <v>0</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="19"/>
@@ -2787,12 +2788,12 @@
         <v>0</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="19"/>
@@ -2800,12 +2801,12 @@
         <v>0</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="19"/>
@@ -2813,12 +2814,12 @@
         <v>0</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="19"/>
@@ -2826,12 +2827,12 @@
         <v>0</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="19"/>
@@ -2839,12 +2840,12 @@
         <v>0</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="19"/>
@@ -2852,12 +2853,12 @@
         <v>0</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="19"/>
@@ -2865,12 +2866,12 @@
         <v>0</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="19"/>
@@ -2878,12 +2879,12 @@
         <v>0</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="19"/>
@@ -2891,12 +2892,12 @@
         <v>0</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="19"/>
@@ -2904,12 +2905,12 @@
         <v>0</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="19"/>
@@ -2917,12 +2918,12 @@
         <v>0</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="19"/>
@@ -2930,12 +2931,12 @@
         <v>0</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="19"/>
@@ -2943,12 +2944,12 @@
         <v>0</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="19"/>
@@ -2956,12 +2957,12 @@
         <v>0</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="19"/>
@@ -2969,12 +2970,12 @@
         <v>0</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="19"/>
@@ -2982,12 +2983,12 @@
         <v>0</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="19"/>
@@ -2995,12 +2996,12 @@
         <v>0</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="19"/>
@@ -3008,12 +3009,12 @@
         <v>0</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="19"/>
@@ -3021,12 +3022,12 @@
         <v>0</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="19"/>
@@ -3034,12 +3035,12 @@
         <v>0</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="19"/>
@@ -3047,12 +3048,12 @@
         <v>0</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="19"/>
@@ -3060,12 +3061,12 @@
         <v>0</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="19"/>
@@ -3073,12 +3074,12 @@
         <v>0</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="19"/>
@@ -3086,12 +3087,12 @@
         <v>0</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="19"/>
@@ -3099,12 +3100,12 @@
         <v>0</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="19"/>
@@ -3112,12 +3113,12 @@
         <v>0</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="19"/>
@@ -3125,12 +3126,12 @@
         <v>0</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="19"/>
@@ -3138,12 +3139,12 @@
         <v>0</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="19"/>
@@ -3151,12 +3152,12 @@
         <v>0</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="19"/>
@@ -3164,12 +3165,12 @@
         <v>0</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="19"/>
@@ -3177,12 +3178,12 @@
         <v>0</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="19"/>
@@ -3190,12 +3191,12 @@
         <v>0</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="19"/>
@@ -3203,12 +3204,12 @@
         <v>0</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="19"/>
@@ -3216,12 +3217,12 @@
         <v>0</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="19"/>
@@ -3229,12 +3230,12 @@
         <v>0</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="19"/>
@@ -3242,12 +3243,12 @@
         <v>0</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="19"/>
@@ -3255,12 +3256,12 @@
         <v>0</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="19"/>
@@ -3268,12 +3269,12 @@
         <v>0</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="19"/>
@@ -3281,12 +3282,12 @@
         <v>0</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="19"/>
@@ -3294,12 +3295,12 @@
         <v>0</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="19"/>
@@ -3307,12 +3308,12 @@
         <v>0</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="19"/>
@@ -3320,12 +3321,12 @@
         <v>0</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="19"/>
@@ -3333,12 +3334,12 @@
         <v>0</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="19"/>
@@ -3346,12 +3347,12 @@
         <v>0</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="19"/>
@@ -3359,12 +3360,12 @@
         <v>0</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="19"/>
@@ -3372,12 +3373,12 @@
         <v>0</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="19"/>
@@ -3385,12 +3386,12 @@
         <v>0</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="19"/>
@@ -3398,12 +3399,12 @@
         <v>0</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="19"/>
@@ -3411,12 +3412,12 @@
         <v>0</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="19"/>
@@ -3424,12 +3425,12 @@
         <v>0</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="19"/>
@@ -3437,12 +3438,12 @@
         <v>0</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="19"/>
@@ -3450,12 +3451,12 @@
         <v>0</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="19"/>
@@ -3463,12 +3464,12 @@
         <v>0</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="19"/>
@@ -3476,12 +3477,12 @@
         <v>0</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="19"/>
@@ -3489,12 +3490,12 @@
         <v>0</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="19"/>
@@ -3502,12 +3503,12 @@
         <v>0</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="19"/>
@@ -3515,12 +3516,12 @@
         <v>0</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="19"/>
@@ -3528,12 +3529,12 @@
         <v>0</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="19"/>
@@ -3541,12 +3542,12 @@
         <v>0</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="19"/>
@@ -3554,12 +3555,12 @@
         <v>0</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="19"/>
@@ -3567,12 +3568,12 @@
         <v>0</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="19"/>
@@ -3580,12 +3581,12 @@
         <v>0</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="19"/>
@@ -3593,12 +3594,12 @@
         <v>0</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
@@ -3606,12 +3607,12 @@
         <v>0</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
@@ -3619,12 +3620,12 @@
         <v>0</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
@@ -3632,12 +3633,12 @@
         <v>0</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
@@ -3645,12 +3646,12 @@
         <v>0</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
@@ -3658,12 +3659,12 @@
         <v>0</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
@@ -3671,12 +3672,12 @@
         <v>0</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
@@ -3684,12 +3685,12 @@
         <v>0</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
@@ -3697,12 +3698,12 @@
         <v>0</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B194" s="19"/>
       <c r="C194" s="19"/>
@@ -3710,12 +3711,12 @@
         <v>0</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B195" s="19"/>
       <c r="C195" s="19"/>
@@ -3723,12 +3724,12 @@
         <v>0</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B196" s="19"/>
       <c r="C196" s="19"/>
@@ -3736,12 +3737,12 @@
         <v>0</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
@@ -3749,12 +3750,12 @@
         <v>0</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B198" s="19"/>
       <c r="C198" s="19"/>
@@ -3762,12 +3763,12 @@
         <v>0</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B199" s="19"/>
       <c r="C199" s="19"/>
@@ -3775,12 +3776,12 @@
         <v>0</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B200" s="19"/>
       <c r="C200" s="19"/>
@@ -3788,12 +3789,12 @@
         <v>0</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B201" s="19"/>
       <c r="C201" s="19"/>
@@ -3801,12 +3802,12 @@
         <v>0</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B202" s="19"/>
       <c r="C202" s="19"/>
@@ -3814,12 +3815,12 @@
         <v>0</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B203" s="19"/>
       <c r="C203" s="19"/>
@@ -3827,12 +3828,12 @@
         <v>0</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B204" s="19"/>
       <c r="C204" s="19"/>
@@ -3840,12 +3841,12 @@
         <v>0</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B205" s="19"/>
       <c r="C205" s="19"/>
@@ -3853,16 +3854,16 @@
         <v>0</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M19:M48">
+  <sortState ref="M19:M48">
     <sortCondition ref="M18:M48"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ward type is invalid" error="Please select a ward type from the dropdown list provided. Otherwise, this ward type will not be included for the analysis." sqref="C6:C205" xr:uid="{C05A4E33-6BDE-464C-84BA-EEC0D69E7404}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ward type is invalid" error="Please select a ward type from the dropdown list provided. Otherwise, this ward type will not be included for the analysis." sqref="C6:C205">
       <formula1>"Group 1 (MED),Group 2 (PED),Group 3 (SURG),Group 4 (ORTHO),Group 5 (OTHERS)"</formula1>
     </dataValidation>
   </dataValidations>
